--- a/src/pages/고수룡.xlsx
+++ b/src/pages/고수룡.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyebc\Documents\ziklolgg\client\src\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E220521-6C1B-47D1-9C7F-4F6A1EA67ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836D95BE-308E-4C3E-AC06-DC7F56A0DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9015" yWindow="1140" windowWidth="17460" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="고수룡" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>고수룡</t>
   </si>
@@ -150,6 +151,38 @@
   </si>
   <si>
     <t>2025멸망전</t>
+  </si>
+  <si>
+    <t>고수룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA/D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,6 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3325,4 +3361,61 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4D1FA0-9CBA-4648-B3DA-439FFF226239}">
+  <dimension ref="B5:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>